--- a/tests/workbook.xlsx
+++ b/tests/workbook.xlsx
@@ -348,7 +348,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <f>SUM(A1, SUM(A1:B3))</f>
+        <f>SUM($A$1:B1)</f>
         <v>0</v>
       </c>
     </row>

--- a/tests/workbook.xlsx
+++ b/tests/workbook.xlsx
@@ -348,7 +348,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <f>SUM($A$1:B1)</f>
+        <f>SUM(A1:B3)</f>
         <v>0</v>
       </c>
     </row>

--- a/tests/workbook.xlsx
+++ b/tests/workbook.xlsx
@@ -348,7 +348,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <f>SUM(A1:B3)</f>
+        <f>SUM($A$1, SUM(A1:B3))</f>
         <v>0</v>
       </c>
     </row>

--- a/tests/workbook.xlsx
+++ b/tests/workbook.xlsx
@@ -348,7 +348,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <f>SUM($A$1, SUM(A1:B3))</f>
+        <f>SUM(A1:B3, 10)</f>
         <v>0</v>
       </c>
     </row>

--- a/tests/workbook.xlsx
+++ b/tests/workbook.xlsx
@@ -348,7 +348,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <f>SUM(A1:B3, 10)</f>
+        <f>AVERAGE(A1:B3,1,1,1,1)</f>
         <v>0</v>
       </c>
     </row>

--- a/tests/workbook.xlsx
+++ b/tests/workbook.xlsx
@@ -348,7 +348,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <f>AVERAGE(A1:B3,1,1,1,1)</f>
+        <f>MIN(A1:B3, A$1, A$1: A100, 3)</f>
         <v>0</v>
       </c>
     </row>

--- a/tests/workbook.xlsx
+++ b/tests/workbook.xlsx
@@ -348,7 +348,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <f>SUM(A1:B3)</f>
+        <f>MIN(A1:B3, A$1, A$1: A100, 3)</f>
         <v>0</v>
       </c>
     </row>
